--- a/data/中药数据库.xlsx
+++ b/data/中药数据库.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tcmnp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5072C7-AB9D-48F9-8979-F92D3368CAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65660180-310E-4B94-9F8B-A83770819C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英文全称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +63,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCMSP22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://old.tcmsp222-e.com/tcmsp.php</t>
+    <t>链接状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,76 +412,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="76.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="76.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{C976332E-0BD6-4D44-A73C-8B4CCBFFFA16}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{3D79B635-9799-4370-BA08-9331EB45488E}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{C976332E-0BD6-4D44-A73C-8B4CCBFFFA16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/中药数据库.xlsx
+++ b/data/中药数据库.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tcmnp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65660180-310E-4B94-9F8B-A83770819C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4A1BB-9F07-40AA-812E-83F7E20D188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCMSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://old.tcmsp-e.com/tcmsp.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +60,14 @@
   </si>
   <si>
     <t>DOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMSP(old)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,54 +415,58 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="76.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
